--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2207250B-9610-468A-8734-1135DA381FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="17280" yWindow="6555" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -142,8 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +212,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -252,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +298,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,6 +350,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,14 +543,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -522,7 +578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -533,7 +589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -544,7 +600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -555,7 +611,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -566,7 +622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -577,7 +633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -588,7 +644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -599,7 +655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -610,7 +666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -621,7 +677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -632,7 +688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -643,7 +699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -654,7 +710,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -665,7 +721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -676,7 +732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2207250B-9610-468A-8734-1135DA381FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="6555" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -77,6 +71,27 @@
   </si>
   <si>
     <t>포박하다</t>
+  </si>
+  <si>
+    <t>보험</t>
+  </si>
+  <si>
+    <t>담보 대출</t>
+  </si>
+  <si>
+    <t>담보</t>
+  </si>
+  <si>
+    <t>융자</t>
+  </si>
+  <si>
+    <t>줄곧</t>
+  </si>
+  <si>
+    <t>수달</t>
+  </si>
+  <si>
+    <t>사냥</t>
   </si>
   <si>
     <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
@@ -139,17 +154,41 @@
     <t>1.) [동사] 잡아서 묶다.</t>
   </si>
   <si>
+    <t>1.) n. insurance</t>
+  </si>
+  <si>
+    <t>1.) n. a secured loan, a loan secured (against land, etc.)</t>
+  </si>
+  <si>
+    <t>1.) n. security, collateral; 2.) n. guarantee, assure</t>
+  </si>
+  <si>
+    <t>1.) n. financing, loan; 2.) v. to loan, to lend</t>
+  </si>
+  <si>
+    <t>1.) adv. Continuously, constantly, continually, all the time</t>
+  </si>
+  <si>
+    <t>1.) n. otter</t>
+  </si>
+  <si>
+    <t>1.) n. hunting, hunt; 2.) v. to hunt</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
     <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,14 +251,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -266,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,27 +329,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,24 +363,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,20 +538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,180 +556,257 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>사냥</t>
+  </si>
+  <si>
+    <t>핏자국</t>
+  </si>
+  <si>
+    <t>계산대</t>
+  </si>
+  <si>
+    <t>늘어서다</t>
+  </si>
+  <si>
+    <t>줄</t>
+  </si>
+  <si>
+    <t>요원</t>
+  </si>
+  <si>
+    <t>평등하게</t>
   </si>
   <si>
     <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
@@ -175,6 +193,26 @@
     <t>1.) n. hunting, hunt; 2.) v. to hunt</t>
   </si>
   <si>
+    <t>1.) n. bloodstain</t>
+  </si>
+  <si>
+    <t>1.) n. checkout counter/stand</t>
+  </si>
+  <si>
+    <t>1.) v. to line/queue up, to stand in a row</t>
+  </si>
+  <si>
+    <t>1.) (끈) string, cord, line; (밧줄) rope
+2.) (사람·물건 등의) line, row, (Brit) queue
+3.) (선) line</t>
+  </si>
+  <si>
+    <t>1.) n. agent, personnel</t>
+  </si>
+  <si>
+    <t>1.) adv. Equally, evenly, impartially, without discrimination</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -182,6 +220,9 @@
   </si>
   <si>
     <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
   </si>
 </sst>
 </file>
@@ -539,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,10 +602,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -572,10 +613,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -583,10 +624,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -594,10 +635,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -605,10 +646,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -616,10 +657,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -627,10 +668,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -638,10 +679,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -649,10 +690,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -660,10 +701,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -671,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -682,10 +723,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -693,10 +734,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -704,10 +745,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -715,10 +756,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -726,10 +767,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -737,10 +778,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -748,10 +789,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -759,10 +800,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -770,10 +811,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -781,10 +822,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -792,10 +833,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -803,10 +844,76 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -110,6 +110,36 @@
   </si>
   <si>
     <t>평등하게</t>
+  </si>
+  <si>
+    <t>불법 마약</t>
+  </si>
+  <si>
+    <t>보수</t>
+  </si>
+  <si>
+    <t>직장</t>
+  </si>
+  <si>
+    <t>가외의</t>
+  </si>
+  <si>
+    <t>무게</t>
+  </si>
+  <si>
+    <t>성당</t>
+  </si>
+  <si>
+    <t>충격</t>
+  </si>
+  <si>
+    <t>각각</t>
+  </si>
+  <si>
+    <t>위대하다</t>
+  </si>
+  <si>
+    <t>후계자</t>
   </si>
   <si>
     <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
@@ -213,6 +243,38 @@
     <t>1.) adv. Equally, evenly, impartially, without discrimination</t>
   </si>
   <si>
+    <t>1.) n. illegal drugs</t>
+  </si>
+  <si>
+    <t>1.) n. pay, wages, remuneration; 2.) n. conservatism; 3.) n. repair; 4.) v. repair, mend, fix</t>
+  </si>
+  <si>
+    <t>1.) n. (일자) job, work; (일터) office, workplace, place of work[employment]</t>
+  </si>
+  <si>
+    <t>1.) n. extra, excessive, spare</t>
+  </si>
+  <si>
+    <t>1.) n. weight</t>
+  </si>
+  <si>
+    <t>1.) cathedral, Catholic Church</t>
+  </si>
+  <si>
+    <t>1.) n. (물리적) (충돌로 인한) impact, (폭발·지진 등으로 인한) shock
+2.) n. (정신적) shock, jolt (=쇼크)</t>
+  </si>
+  <si>
+    <t>1.) (명사)
+2.) (부사) each (person), respectively</t>
+  </si>
+  <si>
+    <t>1.) adj. to be great/mighty/grand</t>
+  </si>
+  <si>
+    <t>1.) n. successor, heir, inheritor</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -223,6 +285,9 @@
   </si>
   <si>
     <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
   </si>
 </sst>
 </file>
@@ -580,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,10 +667,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -613,10 +678,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -624,10 +689,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -635,10 +700,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -646,10 +711,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -657,10 +722,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -668,10 +733,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -679,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -690,10 +755,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -701,10 +766,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -712,10 +777,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -723,10 +788,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -734,10 +799,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -745,10 +810,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -756,10 +821,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -767,10 +832,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -778,10 +843,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -789,10 +854,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -800,10 +865,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -811,10 +876,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -822,10 +887,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -833,10 +898,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -844,10 +909,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -855,10 +920,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -866,10 +931,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -877,10 +942,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -888,10 +953,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -899,10 +964,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -910,10 +975,120 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="131">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -140,6 +140,72 @@
   </si>
   <si>
     <t>후계자</t>
+  </si>
+  <si>
+    <t>단편적이다</t>
+  </si>
+  <si>
+    <t>흐릿하다</t>
+  </si>
+  <si>
+    <t>시절</t>
+  </si>
+  <si>
+    <t>전시</t>
+  </si>
+  <si>
+    <t>회상하다</t>
+  </si>
+  <si>
+    <t>명성</t>
+  </si>
+  <si>
+    <t>좇다</t>
+  </si>
+  <si>
+    <t>잃다</t>
+  </si>
+  <si>
+    <t>도마뱀</t>
+  </si>
+  <si>
+    <t>자가 수정</t>
+  </si>
+  <si>
+    <t>유전자</t>
+  </si>
+  <si>
+    <t>부화하다</t>
+  </si>
+  <si>
+    <t>수컷</t>
+  </si>
+  <si>
+    <t>이사회</t>
+  </si>
+  <si>
+    <t>쿠데타</t>
+  </si>
+  <si>
+    <t>축적하다</t>
+  </si>
+  <si>
+    <t>후보</t>
+  </si>
+  <si>
+    <t>기준</t>
+  </si>
+  <si>
+    <t>충족시키다</t>
+  </si>
+  <si>
+    <t>이민자</t>
+  </si>
+  <si>
+    <t>성공적</t>
+  </si>
+  <si>
+    <t>동화되다</t>
   </si>
   <si>
     <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
@@ -275,6 +341,75 @@
     <t>1.) n. successor, heir, inheritor</t>
   </si>
   <si>
+    <t>1.) adj. fragmentary, scrappy, episodic, piecemeal</t>
+  </si>
+  <si>
+    <t>1.) adj. cloudy, overcast, gray; 2.) adj. dim, faint, weak, vague, indistinct, blurred, blurry</t>
+  </si>
+  <si>
+    <t>1.) n. days, years</t>
+  </si>
+  <si>
+    <t>1.) n. war, wartime; 2.) exhibit, display, put sth on show [display, exhibition]</t>
+  </si>
+  <si>
+    <t>1.) v. to reminisce, to recall, to recollect, to look back on</t>
+  </si>
+  <si>
+    <t>1.) n. fame, reputation, renown</t>
+  </si>
+  <si>
+    <t>1.) v. (목표·이상 등을) pursue, seek, follow, chase, run after
+2.) v. (규칙·관습·의견 등을) follow, obey, abide by, conform to[with], act (up)on (=따르다)</t>
+  </si>
+  <si>
+    <t>1.) v. (물건·집·자리 등을) lose, (빼앗기다) be deprived of
+2.) v. (사라지다) lose, miss
+3.) v. (길·방향·초점 등을) lose, stray</t>
+  </si>
+  <si>
+    <t>1.) n. lizard</t>
+  </si>
+  <si>
+    <t>1.) n. self-fertilization</t>
+  </si>
+  <si>
+    <t>1.) n. gene, genetics</t>
+  </si>
+  <si>
+    <t>1.) v. to hatch</t>
+  </si>
+  <si>
+    <t>1.) n. male</t>
+  </si>
+  <si>
+    <t>1.) n. board of directors, directorate, boardroom</t>
+  </si>
+  <si>
+    <t>1.) n. coup, coup d'etat</t>
+  </si>
+  <si>
+    <t>1.) v. to accumulate</t>
+  </si>
+  <si>
+    <t>1.) n. candidate, nominee</t>
+  </si>
+  <si>
+    <t>1.) n. standard, criteria</t>
+  </si>
+  <si>
+    <t>1.) v. fill, fulfill, meet [the requirments, criteria, etc.]</t>
+  </si>
+  <si>
+    <t>1.) n. migrant, immigrant, emigrant</t>
+  </si>
+  <si>
+    <t>1.) adv. successfully</t>
+  </si>
+  <si>
+    <t>1.) v. to assimilate</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -288,6 +423,9 @@
   </si>
   <si>
     <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
   </si>
 </sst>
 </file>
@@ -645,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +805,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -678,10 +816,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -689,10 +827,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -700,10 +838,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -711,10 +849,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -722,10 +860,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -733,10 +871,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -744,10 +882,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -755,10 +893,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -766,10 +904,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -777,10 +915,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -788,10 +926,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -799,10 +937,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -810,10 +948,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -821,10 +959,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -832,10 +970,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -843,10 +981,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -854,10 +992,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -865,10 +1003,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -876,10 +1014,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -887,10 +1025,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -898,10 +1036,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -909,10 +1047,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -920,10 +1058,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -931,10 +1069,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -942,10 +1080,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -953,10 +1091,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -964,10 +1102,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -975,10 +1113,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -986,10 +1124,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -997,10 +1135,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1008,10 +1146,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1019,10 +1157,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1030,10 +1168,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1041,10 +1179,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1052,10 +1190,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1063,10 +1201,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1074,10 +1212,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1085,10 +1223,252 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="150">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -206,6 +206,33 @@
   </si>
   <si>
     <t>동화되다</t>
+  </si>
+  <si>
+    <t>관습</t>
+  </si>
+  <si>
+    <t>긴밀하다</t>
+  </si>
+  <si>
+    <t>지도자</t>
+  </si>
+  <si>
+    <t>거듭</t>
+  </si>
+  <si>
+    <t>강조하다</t>
+  </si>
+  <si>
+    <t>설립하다</t>
+  </si>
+  <si>
+    <t>몰수되다</t>
+  </si>
+  <si>
+    <t>영지</t>
+  </si>
+  <si>
+    <t>봉기</t>
   </si>
   <si>
     <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
@@ -410,6 +437,33 @@
     <t>1.) v. to assimilate</t>
   </si>
   <si>
+    <t>1.) n. custom, convention</t>
+  </si>
+  <si>
+    <t>1.) adj. close, intimate; 2.) adj. tight, close</t>
+  </si>
+  <si>
+    <t>1.) n. leader, guide</t>
+  </si>
+  <si>
+    <t>1.) adj. again, once more, once again, repeatedly</t>
+  </si>
+  <si>
+    <t>1.) v. emphasize, stress</t>
+  </si>
+  <si>
+    <t>1.) v. establish, found</t>
+  </si>
+  <si>
+    <t>1.) v. be confiscated, be forfeited, be sequestered</t>
+  </si>
+  <si>
+    <t>1.) n. territory, possession, dominion; 2.) fief, feud, vassalage, estate</t>
+  </si>
+  <si>
+    <t>1.) n. uprising, revolt, rebellion</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -426,6 +480,9 @@
   </si>
   <si>
     <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
   </si>
 </sst>
 </file>
@@ -783,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -805,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -816,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -827,10 +884,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -838,10 +895,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -849,10 +906,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -860,10 +917,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -871,10 +928,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -882,10 +939,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -893,10 +950,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -904,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -915,10 +972,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -926,10 +983,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -937,10 +994,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -948,10 +1005,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -959,10 +1016,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -970,10 +1027,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -981,10 +1038,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -992,10 +1049,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1003,10 +1060,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1014,10 +1071,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1025,10 +1082,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1036,10 +1093,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1047,10 +1104,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1058,10 +1115,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1069,10 +1126,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1080,10 +1137,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1091,10 +1148,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1102,10 +1159,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1113,10 +1170,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1124,10 +1181,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1135,10 +1192,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1146,10 +1203,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1157,10 +1214,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1168,10 +1225,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1179,10 +1236,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1190,10 +1247,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1201,10 +1258,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1212,10 +1269,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1223,10 +1280,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1234,10 +1291,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1245,10 +1302,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1256,10 +1313,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1267,10 +1324,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1278,10 +1335,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1289,10 +1346,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1300,10 +1357,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1311,10 +1368,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1322,10 +1379,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1333,10 +1390,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1344,10 +1401,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1355,10 +1412,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1366,10 +1423,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1377,10 +1434,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1388,10 +1445,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1399,10 +1456,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1410,10 +1467,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1421,10 +1478,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1432,10 +1489,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1443,10 +1500,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1454,10 +1511,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1465,10 +1522,109 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="161">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -233,6 +233,21 @@
   </si>
   <si>
     <t>봉기</t>
+  </si>
+  <si>
+    <t>나비 모양</t>
+  </si>
+  <si>
+    <t>신발끈</t>
+  </si>
+  <si>
+    <t>업다</t>
+  </si>
+  <si>
+    <t>등</t>
+  </si>
+  <si>
+    <t>허용되다</t>
   </si>
   <si>
     <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
@@ -464,6 +479,21 @@
     <t>1.) n. uprising, revolt, rebellion</t>
   </si>
   <si>
+    <t>1.) n. bow [shoelaces]</t>
+  </si>
+  <si>
+    <t>1.) n. shoelace</t>
+  </si>
+  <si>
+    <t>1.) v. carry on one's back, have sb ride on one's back</t>
+  </si>
+  <si>
+    <t>1.) n. back [of things]</t>
+  </si>
+  <si>
+    <t>1.) v. be permitted ,be allowed</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -483,6 +513,9 @@
   </si>
   <si>
     <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
   </si>
 </sst>
 </file>
@@ -840,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,10 +895,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -873,10 +906,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -884,10 +917,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -895,10 +928,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -906,10 +939,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -917,10 +950,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -928,10 +961,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -939,10 +972,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -950,10 +983,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -961,10 +994,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -972,10 +1005,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -983,10 +1016,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -994,10 +1027,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1005,10 +1038,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1016,10 +1049,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1027,10 +1060,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1038,10 +1071,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1049,10 +1082,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1060,10 +1093,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1071,10 +1104,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1082,10 +1115,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1093,10 +1126,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1104,10 +1137,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1115,10 +1148,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1126,10 +1159,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1137,10 +1170,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1148,10 +1181,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1159,10 +1192,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1170,10 +1203,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1181,10 +1214,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1192,10 +1225,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1203,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1214,10 +1247,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1225,10 +1258,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1236,10 +1269,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1247,10 +1280,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1258,10 +1291,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1269,10 +1302,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1280,10 +1313,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1291,10 +1324,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1302,10 +1335,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1313,10 +1346,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1324,10 +1357,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1335,10 +1368,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1346,10 +1379,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1357,10 +1390,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1368,10 +1401,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1379,10 +1412,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1390,10 +1423,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1401,10 +1434,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1412,10 +1445,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1423,10 +1456,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1434,10 +1467,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1445,10 +1478,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1456,10 +1489,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1467,10 +1500,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1478,10 +1511,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1489,10 +1522,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1500,10 +1533,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1511,10 +1544,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1522,10 +1555,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1533,10 +1566,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1544,10 +1577,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1555,10 +1588,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1566,10 +1599,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1577,10 +1610,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1588,10 +1621,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1599,10 +1632,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1610,10 +1643,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1621,10 +1654,65 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
         <v>149</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="176">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -248,6 +248,27 @@
   </si>
   <si>
     <t>허용되다</t>
+  </si>
+  <si>
+    <t>분야</t>
+  </si>
+  <si>
+    <t>진출하다</t>
+  </si>
+  <si>
+    <t>가난하다</t>
+  </si>
+  <si>
+    <t>신혼여행</t>
+  </si>
+  <si>
+    <t>경우</t>
+  </si>
+  <si>
+    <t>장난</t>
+  </si>
+  <si>
+    <t>장난꾸러기</t>
   </si>
   <si>
     <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
@@ -494,6 +515,27 @@
     <t>1.) v. be permitted ,be allowed</t>
   </si>
   <si>
+    <t>1.)  n. sphere, area, field, domain; 2.) n. branch, realm, province</t>
+  </si>
+  <si>
+    <t>1.) v. to branch out, expand</t>
+  </si>
+  <si>
+    <t>1.) adj. poor, indigent, destitute</t>
+  </si>
+  <si>
+    <t>1.)  n. honeymoon</t>
+  </si>
+  <si>
+    <t>1.) n. case, circumstances, scenario</t>
+  </si>
+  <si>
+    <t>1.) n. joke, mischief, prank</t>
+  </si>
+  <si>
+    <t>1.) mischievous person, jokester, prankster</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -516,6 +558,9 @@
   </si>
   <si>
     <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
   </si>
 </sst>
 </file>
@@ -873,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,10 +940,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -906,10 +951,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -917,10 +962,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -928,10 +973,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -939,10 +984,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -950,10 +995,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -961,10 +1006,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -972,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -983,10 +1028,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -994,10 +1039,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1005,10 +1050,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1016,10 +1061,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1027,10 +1072,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1038,10 +1083,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1049,10 +1094,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1060,10 +1105,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1071,10 +1116,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1082,10 +1127,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1093,10 +1138,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1104,10 +1149,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1115,10 +1160,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1126,10 +1171,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1137,10 +1182,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1148,10 +1193,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1159,10 +1204,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1170,10 +1215,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1181,10 +1226,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1192,10 +1237,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1203,10 +1248,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1214,10 +1259,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1225,10 +1270,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1236,10 +1281,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1247,10 +1292,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1258,10 +1303,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1269,10 +1314,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1280,10 +1325,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1291,10 +1336,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1302,10 +1347,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1313,10 +1358,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1324,10 +1369,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1335,10 +1380,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1346,10 +1391,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1357,10 +1402,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1368,10 +1413,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1379,10 +1424,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1390,10 +1435,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1401,10 +1446,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1412,10 +1457,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1423,10 +1468,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1434,10 +1479,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1445,10 +1490,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1456,10 +1501,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1467,10 +1512,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1478,10 +1523,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1489,10 +1534,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1500,10 +1545,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1511,10 +1556,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1522,10 +1567,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1533,10 +1578,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1544,10 +1589,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1555,10 +1600,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1566,10 +1611,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1577,10 +1622,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1588,10 +1633,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1599,10 +1644,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1610,10 +1655,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1621,10 +1666,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1632,10 +1677,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1643,10 +1688,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1654,10 +1699,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1665,10 +1710,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1676,10 +1721,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1687,10 +1732,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1698,10 +1743,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1709,10 +1754,87 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
         <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5700E6-B24D-47D4-BFA0-8C5EA17CAFB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="13560" yWindow="6930" windowWidth="43200" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -566,8 +572,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,6 +636,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -676,7 +690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,9 +722,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,6 +774,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -917,14 +967,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="X79" sqref="X79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -946,7 +998,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -957,7 +1009,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -968,7 +1020,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -979,7 +1031,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -990,7 +1042,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1053,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1012,7 +1064,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +1075,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1086,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1097,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1056,7 +1108,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1067,7 +1119,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1078,7 +1130,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +1141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1100,7 +1152,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1111,7 +1163,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1174,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1185,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1144,7 +1196,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1155,7 +1207,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1166,7 +1218,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1177,7 +1229,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1188,7 +1240,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1251,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1210,7 +1262,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1221,7 +1273,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1232,7 +1284,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1243,7 +1295,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1254,7 +1306,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1265,7 +1317,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1276,7 +1328,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1287,7 +1339,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1350,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1309,7 +1361,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1320,7 +1372,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1331,7 +1383,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1342,7 +1394,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1353,7 +1405,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1364,7 +1416,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1375,7 +1427,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1386,7 +1438,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1397,7 +1449,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1408,7 +1460,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1419,7 +1471,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1430,7 +1482,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1441,7 +1493,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1452,7 +1504,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1463,7 +1515,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1474,7 +1526,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1485,7 +1537,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1496,7 +1548,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1507,7 +1559,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1518,7 +1570,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1529,7 +1581,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1540,7 +1592,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1551,7 +1603,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1562,7 +1614,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1573,7 +1625,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1584,7 +1636,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1595,7 +1647,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1606,7 +1658,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1617,7 +1669,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1628,7 +1680,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1639,7 +1691,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1650,7 +1702,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1661,7 +1713,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1672,7 +1724,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1683,7 +1735,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1694,7 +1746,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1705,7 +1757,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1716,7 +1768,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1727,7 +1779,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1738,7 +1790,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1749,7 +1801,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1760,7 +1812,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1771,7 +1823,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1782,7 +1834,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1793,7 +1845,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1804,7 +1856,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1815,7 +1867,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1826,7 +1878,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5700E6-B24D-47D4-BFA0-8C5EA17CAFB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="6930" windowWidth="43200" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -572,8 +566,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -636,14 +630,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -690,7 +676,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -722,27 +708,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -774,24 +742,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -967,16 +917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="X79" sqref="X79"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -998,7 +946,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +957,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +968,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1031,7 +979,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +990,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1001,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1064,7 +1012,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1075,7 +1023,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1086,7 +1034,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1045,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1108,7 +1056,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1067,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1130,7 +1078,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1089,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1152,7 +1100,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1163,7 +1111,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1174,7 +1122,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1133,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1196,7 +1144,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1207,7 +1155,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1218,7 +1166,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1229,7 +1177,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1240,7 +1188,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1251,7 +1199,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1262,7 +1210,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1273,7 +1221,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1284,7 +1232,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1295,7 +1243,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1306,7 +1254,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1317,7 +1265,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1328,7 +1276,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1339,7 +1287,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1350,7 +1298,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1361,7 +1309,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1372,7 +1320,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1383,7 +1331,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1394,7 +1342,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1405,7 +1353,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1416,7 +1364,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1427,7 +1375,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1438,7 +1386,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1449,7 +1397,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1460,7 +1408,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1471,7 +1419,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1482,7 +1430,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1493,7 +1441,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1504,7 +1452,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1463,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1526,7 +1474,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1537,7 +1485,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1548,7 +1496,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1559,7 +1507,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1570,7 +1518,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1581,7 +1529,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1592,7 +1540,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1603,7 +1551,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1614,7 +1562,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1625,7 +1573,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1636,7 +1584,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1647,7 +1595,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1658,7 +1606,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1669,7 +1617,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1680,7 +1628,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -1691,7 +1639,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -1702,7 +1650,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -1713,7 +1661,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -1724,7 +1672,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -1735,7 +1683,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -1746,7 +1694,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -1757,7 +1705,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -1768,7 +1716,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -1779,7 +1727,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -1790,7 +1738,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -1801,7 +1749,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -1812,7 +1760,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -1823,7 +1771,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -1834,7 +1782,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1845,7 +1793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -1856,7 +1804,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -1867,7 +1815,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -1878,7 +1826,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>84</v>
       </c>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="189">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -269,6 +269,24 @@
   </si>
   <si>
     <t>장난꾸러기</t>
+  </si>
+  <si>
+    <t>제외</t>
+  </si>
+  <si>
+    <t>사항</t>
+  </si>
+  <si>
+    <t>제외하다</t>
+  </si>
+  <si>
+    <t>납부액</t>
+  </si>
+  <si>
+    <t>가치가 하락하다</t>
+  </si>
+  <si>
+    <t>점차</t>
   </si>
   <si>
     <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
@@ -536,6 +554,24 @@
     <t>1.) mischievous person, jokester, prankster</t>
   </si>
   <si>
+    <t>1.) n. exemption</t>
+  </si>
+  <si>
+    <t>1.) n. a matter, subject; 2.) n. item, article, particulars, details</t>
+  </si>
+  <si>
+    <t>1.) v. except (from), make an exception of, exclude (from), exempt (a person)</t>
+  </si>
+  <si>
+    <t>1.) n. payment amount, amount of payment</t>
+  </si>
+  <si>
+    <t>1.) v. decrease [fall, go down] in value, drop in value</t>
+  </si>
+  <si>
+    <t>1.) adj. gradually, slowly, steadily, by degrees, little by little, step by step</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -561,6 +597,9 @@
   </si>
   <si>
     <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
   </si>
 </sst>
 </file>
@@ -918,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,10 +979,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -951,10 +990,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -962,10 +1001,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -973,10 +1012,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -984,10 +1023,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -995,10 +1034,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1006,10 +1045,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1017,10 +1056,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1028,10 +1067,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1039,10 +1078,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1050,10 +1089,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1061,10 +1100,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1072,10 +1111,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1083,10 +1122,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1094,10 +1133,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1105,10 +1144,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1116,10 +1155,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1127,10 +1166,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1138,10 +1177,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1149,10 +1188,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1160,10 +1199,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1171,10 +1210,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1182,10 +1221,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1193,10 +1232,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1204,10 +1243,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1215,10 +1254,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1226,10 +1265,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1237,10 +1276,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1248,10 +1287,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1259,10 +1298,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1270,10 +1309,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1281,10 +1320,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1292,10 +1331,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1303,10 +1342,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1314,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1325,10 +1364,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1336,10 +1375,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1347,10 +1386,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1358,10 +1397,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1369,10 +1408,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1380,10 +1419,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1391,10 +1430,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1402,10 +1441,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1413,10 +1452,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1424,10 +1463,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1435,10 +1474,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1446,10 +1485,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1457,10 +1496,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1468,10 +1507,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1479,10 +1518,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1490,10 +1529,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1501,10 +1540,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1512,10 +1551,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1523,10 +1562,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1534,10 +1573,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1545,10 +1584,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1556,10 +1595,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1567,10 +1606,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1578,10 +1617,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1589,10 +1628,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1600,10 +1639,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1611,10 +1650,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1622,10 +1661,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1633,10 +1672,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1644,10 +1683,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1655,10 +1694,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1666,10 +1705,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1677,10 +1716,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1688,10 +1727,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1699,10 +1738,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1710,10 +1749,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1721,10 +1760,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1732,10 +1771,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1743,10 +1782,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1754,10 +1793,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1765,10 +1804,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1776,10 +1815,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1787,10 +1826,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1798,10 +1837,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1809,10 +1848,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1820,10 +1859,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1831,10 +1870,76 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
         <v>175</v>
+      </c>
+      <c r="C86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="224">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -287,6 +287,57 @@
   </si>
   <si>
     <t>점차</t>
+  </si>
+  <si>
+    <t>분할하다</t>
+  </si>
+  <si>
+    <t>상환하다</t>
+  </si>
+  <si>
+    <t>액수</t>
+  </si>
+  <si>
+    <t>매기다</t>
+  </si>
+  <si>
+    <t>허우적거리다</t>
+  </si>
+  <si>
+    <t>공포증</t>
+  </si>
+  <si>
+    <t>상어</t>
+  </si>
+  <si>
+    <t>고래</t>
+  </si>
+  <si>
+    <t>사냥꾼</t>
+  </si>
+  <si>
+    <t>뒤쫓다</t>
+  </si>
+  <si>
+    <t>사냥감</t>
+  </si>
+  <si>
+    <t>놓치다</t>
+  </si>
+  <si>
+    <t>모피</t>
+  </si>
+  <si>
+    <t>당하다</t>
+  </si>
+  <si>
+    <t>개입하다</t>
+  </si>
+  <si>
+    <t>현미 수술</t>
+  </si>
+  <si>
+    <t>개척자</t>
   </si>
   <si>
     <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
@@ -572,6 +623,57 @@
     <t>1.) adj. gradually, slowly, steadily, by degrees, little by little, step by step</t>
   </si>
   <si>
+    <t>1.) n. division, partition; 2.) v. divide, split, partition, parcel out</t>
+  </si>
+  <si>
+    <t>1.) v. repay, pay back, return</t>
+  </si>
+  <si>
+    <t>1.) n. sum [of money]</t>
+  </si>
+  <si>
+    <t>1.) v. charge [a price], appraise, value, offer [a price]</t>
+  </si>
+  <si>
+    <t>1.) v. struggle, flounder</t>
+  </si>
+  <si>
+    <t>1.) n. phobia, morbid fear, psychasthenia</t>
+  </si>
+  <si>
+    <t>1.) n. shark</t>
+  </si>
+  <si>
+    <t>1.) n. whale</t>
+  </si>
+  <si>
+    <t>1.) n. hunter</t>
+  </si>
+  <si>
+    <t>1.) v. pursue, chase/run [after], trail, track</t>
+  </si>
+  <si>
+    <t>1.) n. quarry, game, prey</t>
+  </si>
+  <si>
+    <t>1.) v. miss, lose</t>
+  </si>
+  <si>
+    <t>1.) n. fur, hide, pelt</t>
+  </si>
+  <si>
+    <t>1.) v. suffer, cope with</t>
+  </si>
+  <si>
+    <t>1.) v. interfere, meddle, move in [to do smth]</t>
+  </si>
+  <si>
+    <t>1.) n. microsurgery</t>
+  </si>
+  <si>
+    <t>1.) n. pioneer, trailblazer, pathfinder</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -600,6 +702,9 @@
   </si>
   <si>
     <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
   </si>
 </sst>
 </file>
@@ -957,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,10 +1084,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -990,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1001,10 +1106,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1012,10 +1117,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1023,10 +1128,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1034,10 +1139,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1045,10 +1150,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1056,10 +1161,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1067,10 +1172,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1078,10 +1183,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1089,10 +1194,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1100,10 +1205,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1111,10 +1216,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1122,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1133,10 +1238,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1144,10 +1249,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1155,10 +1260,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1166,10 +1271,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1177,10 +1282,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1188,10 +1293,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1199,10 +1304,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1210,10 +1315,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1221,10 +1326,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1232,10 +1337,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1243,10 +1348,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1254,10 +1359,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1265,10 +1370,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1276,10 +1381,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1287,10 +1392,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1298,10 +1403,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1309,10 +1414,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1320,10 +1425,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1331,10 +1436,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1342,10 +1447,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1353,10 +1458,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1364,10 +1469,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1375,10 +1480,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1386,10 +1491,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1397,10 +1502,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1408,10 +1513,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1419,10 +1524,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1430,10 +1535,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1441,10 +1546,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1452,10 +1557,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1463,10 +1568,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1474,10 +1579,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1485,10 +1590,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1496,10 +1601,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1507,10 +1612,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1518,10 +1623,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1529,10 +1634,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1540,10 +1645,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1551,10 +1656,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1562,10 +1667,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1573,10 +1678,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1584,10 +1689,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1595,10 +1700,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1606,10 +1711,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1617,10 +1722,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1628,10 +1733,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1639,10 +1744,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1650,10 +1755,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1661,10 +1766,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1672,10 +1777,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1683,10 +1788,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1694,10 +1799,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1705,10 +1810,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1716,10 +1821,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1727,10 +1832,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1738,10 +1843,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1749,10 +1854,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1760,10 +1865,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1771,10 +1876,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1782,10 +1887,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1793,10 +1898,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1804,10 +1909,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1815,10 +1920,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1826,10 +1931,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1837,10 +1942,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1848,10 +1953,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1859,10 +1964,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1870,10 +1975,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1881,10 +1986,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1892,10 +1997,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1903,10 +2008,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1914,10 +2019,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1925,10 +2030,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1936,10 +2041,197 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>188</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="231">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t>개척자</t>
+  </si>
+  <si>
+    <t>농업</t>
+  </si>
+  <si>
+    <t>내부적</t>
+  </si>
+  <si>
+    <t>불만</t>
   </si>
   <si>
     <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
@@ -674,6 +683,15 @@
     <t>1.) n. pioneer, trailblazer, pathfinder</t>
   </si>
   <si>
+    <t>1.) n. agriculture, farming</t>
+  </si>
+  <si>
+    <t>1.) n. internal</t>
+  </si>
+  <si>
+    <t>1.) n. dissatisfaction, discontent[ment], complaint, grievance</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -705,6 +723,9 @@
   </si>
   <si>
     <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,10 +1105,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1095,10 +1116,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1106,10 +1127,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1117,10 +1138,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1128,10 +1149,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1139,10 +1160,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1150,10 +1171,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1161,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1172,10 +1193,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1183,10 +1204,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1194,10 +1215,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1205,10 +1226,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1216,10 +1237,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1227,10 +1248,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1238,10 +1259,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1249,10 +1270,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1260,10 +1281,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1271,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1282,10 +1303,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1293,10 +1314,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1304,10 +1325,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1315,10 +1336,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1326,10 +1347,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1337,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1348,10 +1369,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1359,10 +1380,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1370,10 +1391,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1381,10 +1402,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1392,10 +1413,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1403,10 +1424,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1414,10 +1435,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1425,10 +1446,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1436,10 +1457,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1447,10 +1468,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1458,10 +1479,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1469,10 +1490,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1480,10 +1501,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1491,10 +1512,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1502,10 +1523,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1513,10 +1534,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1524,10 +1545,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1535,10 +1556,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1546,10 +1567,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1557,10 +1578,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1568,10 +1589,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1579,10 +1600,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1590,10 +1611,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1601,10 +1622,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1612,10 +1633,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1623,10 +1644,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1634,10 +1655,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1645,10 +1666,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1656,10 +1677,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1667,10 +1688,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1678,10 +1699,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1689,10 +1710,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1700,10 +1721,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1711,10 +1732,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1722,10 +1743,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1733,10 +1754,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1744,10 +1765,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1755,10 +1776,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1766,10 +1787,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1777,10 +1798,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1788,10 +1809,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1799,10 +1820,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1810,10 +1831,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1821,10 +1842,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1832,10 +1853,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1843,10 +1864,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1854,10 +1875,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1865,10 +1886,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1876,10 +1897,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1887,10 +1908,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1898,10 +1919,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1909,10 +1930,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C77" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1920,10 +1941,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1931,10 +1952,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1942,10 +1963,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1953,10 +1974,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1964,10 +1985,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1975,10 +1996,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1986,10 +2007,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C84" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1997,10 +2018,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C85" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2008,10 +2029,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C86" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2019,10 +2040,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2030,10 +2051,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2041,10 +2062,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2052,10 +2073,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2063,10 +2084,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2074,10 +2095,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2085,10 +2106,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2096,10 +2117,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2107,10 +2128,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C95" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2118,10 +2139,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2129,10 +2150,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2140,10 +2161,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C98" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2151,10 +2172,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2162,10 +2183,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2173,10 +2194,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2184,10 +2205,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2195,10 +2216,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2206,10 +2227,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C104" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2217,10 +2238,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2228,10 +2249,43 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C106" t="s">
-        <v>223</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/한국어_words.xlsx
+++ b/Databases/한국어_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="318">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -347,6 +347,129 @@
   </si>
   <si>
     <t>불만</t>
+  </si>
+  <si>
+    <t>탄소중립</t>
+  </si>
+  <si>
+    <t>존재하다</t>
+  </si>
+  <si>
+    <t>량</t>
+  </si>
+  <si>
+    <t>연구기관</t>
+  </si>
+  <si>
+    <t>관측</t>
+  </si>
+  <si>
+    <t>심층</t>
+  </si>
+  <si>
+    <t>지각</t>
+  </si>
+  <si>
+    <t>불과</t>
+  </si>
+  <si>
+    <t>인류</t>
+  </si>
+  <si>
+    <t>활용하다</t>
+  </si>
+  <si>
+    <t>활용</t>
+  </si>
+  <si>
+    <t>극히</t>
+  </si>
+  <si>
+    <t>일부다</t>
+  </si>
+  <si>
+    <t>해당하다</t>
+  </si>
+  <si>
+    <t>제재</t>
+  </si>
+  <si>
+    <t>금하다</t>
+  </si>
+  <si>
+    <t>수월하다</t>
+  </si>
+  <si>
+    <t>결승</t>
+  </si>
+  <si>
+    <t>변경</t>
+  </si>
+  <si>
+    <t>뒷면</t>
+  </si>
+  <si>
+    <t>상세</t>
+  </si>
+  <si>
+    <t>신용</t>
+  </si>
+  <si>
+    <t>책임</t>
+  </si>
+  <si>
+    <t>구두쇠</t>
+  </si>
+  <si>
+    <t>목록</t>
+  </si>
+  <si>
+    <t>형태</t>
+  </si>
+  <si>
+    <t>가라앉다</t>
+  </si>
+  <si>
+    <t>생명체</t>
+  </si>
+  <si>
+    <t>생물권</t>
+  </si>
+  <si>
+    <t>유통되다</t>
+  </si>
+  <si>
+    <t>해저</t>
+  </si>
+  <si>
+    <t>거스름돈</t>
+  </si>
+  <si>
+    <t>기라성</t>
+  </si>
+  <si>
+    <t>구급차</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부상자 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">설문 </t>
+  </si>
+  <si>
+    <t>훈련 받다</t>
+  </si>
+  <si>
+    <t>탄생</t>
+  </si>
+  <si>
+    <t>순환</t>
+  </si>
+  <si>
+    <t>차지하다</t>
+  </si>
+  <si>
+    <t>달하다</t>
   </si>
   <si>
     <t>1.(손에 잡다) hold, take; (집어 올리다) pick up; (몸에 지니고 다니다) carry 
@@ -692,6 +815,129 @@
     <t>1.) n. dissatisfaction, discontent[ment], complaint, grievance</t>
   </si>
   <si>
+    <t>1.) n. carbon neutrality</t>
+  </si>
+  <si>
+    <t>1.) v. to exist, to be extant</t>
+  </si>
+  <si>
+    <t>1.) n. amount (of)</t>
+  </si>
+  <si>
+    <t>1.) n. research institute</t>
+  </si>
+  <si>
+    <t>1.) v. to observe; 2.) n. observation, observatory</t>
+  </si>
+  <si>
+    <t>1.) n. the depths, deep</t>
+  </si>
+  <si>
+    <t>1.) n. Earth's crust</t>
+  </si>
+  <si>
+    <t>1.) adv. only, just</t>
+  </si>
+  <si>
+    <t>1.) n. humanity, humankind</t>
+  </si>
+  <si>
+    <t>1.) v. to use, utilize; 2.) v. to inflect, conjugate, decline</t>
+  </si>
+  <si>
+    <t>1.) n. application, practical use; 2.) n. inflection, inflexion, conjugation, declension</t>
+  </si>
+  <si>
+    <t>1.) adv. very, extremely, greatly</t>
+  </si>
+  <si>
+    <t>1.) v. to be partial, a small amount</t>
+  </si>
+  <si>
+    <t>1.) v. to correspond to, be equivalent to, be tantamount to, to be relevant, to be applicable to</t>
+  </si>
+  <si>
+    <t>1.) n. saction, restriction</t>
+  </si>
+  <si>
+    <t>1.) v. to prohibit, to ban, to forbid</t>
+  </si>
+  <si>
+    <t>1.) v. to coast; 2.) adj. to be no trouble at all</t>
+  </si>
+  <si>
+    <t>1.) n. the final(s)</t>
+  </si>
+  <si>
+    <t>1.) n. change(s)</t>
+  </si>
+  <si>
+    <t>1.) n. the back, the reverse/other side</t>
+  </si>
+  <si>
+    <t>1.) n. details, particulars, minute details</t>
+  </si>
+  <si>
+    <t>1.) n. credibility, trust, confidence (in), believe (in)</t>
+  </si>
+  <si>
+    <t>1.) n. responsibility, duty, obligation (to)</t>
+  </si>
+  <si>
+    <t>1.) n. miser, penny-pincher, scrooge, cheapskate</t>
+  </si>
+  <si>
+    <t>1.) n. list, inventory</t>
+  </si>
+  <si>
+    <t>1.) n. shape, form</t>
+  </si>
+  <si>
+    <t>1.) v. to sink, to settle, to go under</t>
+  </si>
+  <si>
+    <t>1.) n. life, living organism, living things</t>
+  </si>
+  <si>
+    <t>1.) n. the biosphere</t>
+  </si>
+  <si>
+    <t>1.) v. to circulate</t>
+  </si>
+  <si>
+    <t>1.) n. seabed, ocean floor</t>
+  </si>
+  <si>
+    <t>1.) n. change</t>
+  </si>
+  <si>
+    <t>1.) n. glittering/bright stars</t>
+  </si>
+  <si>
+    <t>1.) n. ambulance</t>
+  </si>
+  <si>
+    <t>1.) n. injured/wounded person, the injured</t>
+  </si>
+  <si>
+    <t>1.) n. survey, questionnaire</t>
+  </si>
+  <si>
+    <t>1.) adj. trained</t>
+  </si>
+  <si>
+    <t>1.) v. be born, come into this world</t>
+  </si>
+  <si>
+    <t>1.) n. circulation, rotation, cycle</t>
+  </si>
+  <si>
+    <t>1.) v. to possess, own</t>
+  </si>
+  <si>
+    <t>1.) v. to reach, to come to</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -726,6 +972,21 @@
   </si>
   <si>
     <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,10 +1366,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1116,10 +1377,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1127,10 +1388,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1138,10 +1399,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1149,10 +1410,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1160,10 +1421,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1171,10 +1432,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1182,10 +1443,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1193,10 +1454,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1204,10 +1465,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1215,10 +1476,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1226,10 +1487,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1237,10 +1498,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1248,10 +1509,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1259,10 +1520,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1270,10 +1531,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1281,10 +1542,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1292,10 +1553,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1303,10 +1564,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1314,10 +1575,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1325,10 +1586,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1336,10 +1597,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1347,10 +1608,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1358,10 +1619,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1369,10 +1630,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1380,10 +1641,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1391,10 +1652,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1402,10 +1663,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1413,10 +1674,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1424,10 +1685,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1435,10 +1696,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1446,10 +1707,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1457,10 +1718,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1468,10 +1729,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1479,10 +1740,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1490,10 +1751,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1501,10 +1762,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1512,10 +1773,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1523,10 +1784,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1534,10 +1795,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1545,10 +1806,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1556,10 +1817,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1567,10 +1828,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1578,10 +1839,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="C45" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1589,10 +1850,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1600,10 +1861,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1611,10 +1872,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1622,10 +1883,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1633,10 +1894,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1644,10 +1905,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1655,10 +1916,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1666,10 +1927,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1677,10 +1938,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1688,10 +1949,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1699,10 +1960,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1710,10 +1971,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1721,10 +1982,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1732,10 +1993,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1743,10 +2004,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1754,10 +2015,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1765,10 +2026,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1776,10 +2037,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1787,10 +2048,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1798,10 +2059,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1809,10 +2070,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1820,10 +2081,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="C67" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1831,10 +2092,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="C68" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1842,10 +2103,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="C69" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1853,10 +2114,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="C70" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1864,10 +2125,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1875,10 +2136,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1886,10 +2147,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1897,10 +2158,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1908,10 +2169,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1919,10 +2180,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1930,10 +2191,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1941,10 +2202,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1952,10 +2213,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1963,10 +2224,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C80" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1974,10 +2235,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="C81" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1985,10 +2246,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="C82" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1996,10 +2257,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2007,10 +2268,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="C84" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2018,10 +2279,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2029,10 +2290,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C86" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2040,10 +2301,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="C87" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2051,10 +2312,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="C88" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2062,10 +2323,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2073,10 +2334,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="C90" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2084,10 +2345,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2095,10 +2356,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2106,10 +2367,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C93" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2117,10 +2378,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C94" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2128,10 +2389,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2139,10 +2400,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2150,10 +2411,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2161,10 +2422,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="C98" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2172,10 +2433,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="C99" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2183,10 +2444,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2194,10 +2455,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="C101" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2205,10 +2466,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2216,10 +2477,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2227,10 +2488,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2238,10 +2499,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2249,10 +2510,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="C106" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2260,10 +2521,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2271,10 +2532,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2282,10 +2543,461 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="C109" t="s">
-        <v>230</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>260</v>
+      </c>
+      <c r="C110" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>263</v>
+      </c>
+      <c r="C113" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>264</v>
+      </c>
+      <c r="C114" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>265</v>
+      </c>
+      <c r="C115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>267</v>
+      </c>
+      <c r="C117" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>268</v>
+      </c>
+      <c r="C118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>273</v>
+      </c>
+      <c r="C123" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>275</v>
+      </c>
+      <c r="C125" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>277</v>
+      </c>
+      <c r="C127" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>278</v>
+      </c>
+      <c r="C128" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>279</v>
+      </c>
+      <c r="C129" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>280</v>
+      </c>
+      <c r="C130" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>281</v>
+      </c>
+      <c r="C131" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>282</v>
+      </c>
+      <c r="C132" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>283</v>
+      </c>
+      <c r="C133" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>284</v>
+      </c>
+      <c r="C134" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>286</v>
+      </c>
+      <c r="C136" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>287</v>
+      </c>
+      <c r="C137" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>288</v>
+      </c>
+      <c r="C138" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>289</v>
+      </c>
+      <c r="C139" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>293</v>
+      </c>
+      <c r="C143" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>294</v>
+      </c>
+      <c r="C144" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>295</v>
+      </c>
+      <c r="C145" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>296</v>
+      </c>
+      <c r="C146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>298</v>
+      </c>
+      <c r="C148" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>299</v>
+      </c>
+      <c r="C149" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
